--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,205 +46,205 @@
     <t>crap</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>water</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>small</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
+    <t>color</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>look</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>use</t>
@@ -253,39 +253,42 @@
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
+    <t>get</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -295,15 +298,15 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -316,67 +319,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoys</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>well</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>good</t>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -737,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -824,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -848,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -877,16 +886,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -898,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -906,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -924,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -956,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -1006,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.8172043010752689</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7619047619047619</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,37 +1115,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7605633802816901</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>132</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>54</v>
       </c>
-      <c r="D9">
-        <v>54</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0.6792452830188679</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.671875</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>0.671875</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>0.5797101449275363</v>
@@ -1256,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6774193548387096</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>0.5480631276901005</v>
+        <v>0.5265423242467718</v>
       </c>
       <c r="L12">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M12">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.640625</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13">
-        <v>0.4730290456431535</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="L13">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M13">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6285714285714286</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>0.4426229508196721</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L14">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M14">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6283783783783784</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15">
-        <v>0.3577981651376147</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L15">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>210</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16">
-        <v>0.3192771084337349</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L16">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5825242718446602</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>0.2962962962962963</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>0.2916666666666667</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5636363636363636</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19">
-        <v>0.2622950819672131</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5462184873949579</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1674,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20">
-        <v>0.216</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1698,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21">
-        <v>0.2043010752688172</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5161290322580645</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0.1953125</v>
+        <v>0.2109375</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1798,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4898550724637681</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C23">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1824,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K23">
-        <v>0.1746031746031746</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1848,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>0.1724137931034483</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,37 +1915,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4444444444444444</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>28</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>35</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25">
-        <v>0.1678321678321678</v>
+        <v>0.176</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4444444444444444</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1974,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>0.1646586345381526</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1998,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K27">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2056,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4210526315789473</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2074,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K28">
-        <v>0.1419807186678352</v>
+        <v>0.1463628396143734</v>
       </c>
       <c r="L28">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2098,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2106,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4096385542168675</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29">
-        <v>0.07520891364902507</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2148,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2156,13 +2165,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4047619047619048</v>
+        <v>0.421875</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2174,31 +2183,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
-        <v>0.07272727272727272</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L30">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1428</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,49 +2215,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3968253968253968</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>38</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
-        <v>0.07003891050583658</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>239</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2256,13 +2265,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.396551724137931</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2274,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32">
-        <v>0.06970509383378017</v>
+        <v>0.06551724137931035</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>347</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2306,13 +2315,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3953488372093023</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2324,28 +2333,28 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K33">
-        <v>0.06790123456790123</v>
+        <v>0.06501547987616099</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33">
         <v>22</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>302</v>
@@ -2356,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3877551020408163</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2374,31 +2383,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K34">
-        <v>0.04933333333333333</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>713</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2406,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3828125</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2424,31 +2433,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>0.02428571428571429</v>
+        <v>0.04336734693877551</v>
       </c>
       <c r="L35">
         <v>17</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O35">
-        <v>0.23</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>683</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2456,13 +2465,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2474,7 +2483,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36">
+        <v>0.04127829560585886</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>0.97</v>
+      </c>
+      <c r="O36">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2482,13 +2515,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3744075829383886</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C37">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2500,7 +2533,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>132</v>
+        <v>35</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37">
+        <v>0.0321285140562249</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2508,13 +2565,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3684210526315789</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2526,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2534,13 +2591,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3636363636363636</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2552,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2560,13 +2617,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3622047244094488</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2578,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2586,13 +2643,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3518518518518519</v>
+        <v>0.3359375</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2604,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2615,10 +2672,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2630,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2638,13 +2695,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2753623188405797</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2656,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2664,13 +2721,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2696629213483146</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2682,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2690,13 +2747,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2686567164179104</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2708,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2716,13 +2773,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2623762376237624</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C46">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2734,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2742,25 +2799,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2622950819672131</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2768,13 +2825,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2448979591836735</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2786,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2794,13 +2851,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2319587628865979</v>
+        <v>0.2</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2812,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2820,13 +2877,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2051282051282051</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2838,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2846,13 +2903,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2027027027027027</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2864,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2872,13 +2929,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1864406779661017</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2890,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2898,13 +2955,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1857142857142857</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2916,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2924,13 +2981,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.175</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2942,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>165</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2950,25 +3007,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1739130434782609</v>
+        <v>0.1575037147102526</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D55">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>228</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2976,25 +3033,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1679049034175334</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C56">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>560</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3002,25 +3059,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1588785046728972</v>
+        <v>0.15</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3028,13 +3085,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1582278481012658</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3046,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3054,13 +3111,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.154639175257732</v>
+        <v>0.1484375</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3072,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3106,13 +3163,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1464968152866242</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3124,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3132,25 +3189,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1428571428571428</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="C62">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>270</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3158,25 +3215,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1401869158878505</v>
+        <v>0.1396825396825397</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3184,13 +3241,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1235955056179775</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3202,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>234</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3210,25 +3267,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1214574898785425</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3236,13 +3293,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1204188481675393</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3254,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>168</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3262,13 +3319,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1171875</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3280,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3288,13 +3345,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1092896174863388</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3306,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3314,13 +3371,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1079295154185022</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3332,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>405</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3340,25 +3397,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09740259740259741</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3366,13 +3423,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09714285714285714</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3384,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3392,25 +3449,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07692307692307693</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3418,22 +3475,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.07589285714285714</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C73">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>414</v>
@@ -3444,25 +3501,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06611570247933884</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>565</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3470,25 +3527,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.06071428571428571</v>
+        <v>0.07107438016528926</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>263</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3496,25 +3553,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05649717514124294</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>334</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3522,25 +3579,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0539906103286385</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E77">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="F77">
-        <v>0.74</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>403</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3548,25 +3605,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05379746835443038</v>
+        <v>0.03981264637002342</v>
       </c>
       <c r="C78">
         <v>17</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="F78">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>299</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3574,25 +3631,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04732824427480916</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>624</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3600,13 +3657,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04441624365482234</v>
+        <v>0.03533026113671275</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E80">
         <v>0.15</v>
@@ -3618,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>753</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3626,25 +3683,51 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.03529411764705882</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="C81">
         <v>15</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="F81">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>410</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.02982107355864811</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>0.06</v>
+      </c>
+      <c r="F82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
